--- a/软件工程CDIO框架.xlsx
+++ b/软件工程CDIO框架.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>毕业设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整个培养过程中涉及的专业课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Java EE企业级应用开发项目课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,6 +289,22 @@
   </si>
   <si>
     <t>二级项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS程序设计基础项目课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web开发项目课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个培养过程涉及的开发类课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个培养过程设计的专业课程（包括毕业论文）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -426,7 +438,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -440,6 +452,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,10 +763,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -761,59 +779,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="8"/>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -823,10 +841,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -836,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -849,38 +867,38 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -890,10 +908,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -903,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>5</v>
@@ -912,29 +930,29 @@
     <row r="12" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -944,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
@@ -957,10 +975,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -970,38 +988,38 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1011,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>5</v>
@@ -1024,18 +1042,18 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="6">
         <v>3</v>
@@ -1044,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1053,7 +1071,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1063,7 +1081,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>4</v>
@@ -1085,7 +1103,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>4</v>
@@ -1112,7 +1130,7 @@
     <row r="28" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="6">
         <v>3</v>
@@ -1121,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1130,7 +1148,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1140,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
@@ -1202,10 +1220,10 @@
         <v>6</v>
       </c>
       <c r="D36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1247,7 +1265,7 @@
     <row r="41" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="6">
         <v>3</v>
@@ -1256,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1265,7 +1283,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1275,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
@@ -1297,10 +1315,10 @@
         <v>5</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1309,7 +1327,7 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1319,10 +1337,10 @@
         <v>6</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1331,7 +1349,7 @@
       <c r="C48" s="6"/>
       <c r="D48" s="8"/>
       <c r="E48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1340,13 +1358,13 @@
       <c r="C49" s="6"/>
       <c r="D49" s="9"/>
       <c r="E49" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="6">
         <v>3</v>
@@ -1354,8 +1372,8 @@
       <c r="D50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>37</v>
+      <c r="E50" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1363,21 +1381,21 @@
       <c r="B51" s="8"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="2" t="s">
-        <v>44</v>
+      <c r="E51" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="8"/>
       <c r="C52" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1385,17 +1403,21 @@
       <c r="B53" s="8"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="C54" s="6">
+        <v>6</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="E54" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1404,148 +1426,188 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
-      <c r="B56" s="9"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
-      <c r="B57" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="6">
-        <v>3</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
-      <c r="B58" s="8"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
-      <c r="B59" s="8"/>
+      <c r="B59" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="C59" s="6">
-        <v>6</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="8"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="2" t="s">
-        <v>25</v>
+      <c r="D60" s="6"/>
+      <c r="E60" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="2" t="s">
-        <v>12</v>
+      <c r="C61" s="7">
+        <v>4</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="6"/>
+      <c r="C62" s="8"/>
       <c r="D62" s="8"/>
-      <c r="E62" s="2" t="s">
-        <v>26</v>
+      <c r="E62" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="6"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="2" t="s">
-        <v>27</v>
+      <c r="E63" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="2">
-        <v>7</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>66</v>
+      <c r="A64" s="6"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="6">
+        <v>6</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="2">
+      <c r="B65" s="8"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="2">
+        <v>7</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="2">
         <v>8</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>13</v>
+      <c r="E70" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B41:B49"/>
+  <mergeCells count="48">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B28:B40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="B50:B58"/>
     <mergeCell ref="A3:A20"/>
-    <mergeCell ref="A21:A63"/>
+    <mergeCell ref="A21:A68"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D27"/>
@@ -1559,12 +1621,25 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B28:B40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="B69:B70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
